--- a/Data/Excels/Syncolon/Resumes/Experiment 69.xlsx
+++ b/Data/Excels/Syncolon/Resumes/Experiment 69.xlsx
@@ -446,202 +446,202 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>105-2-115-TwoPoints Improvement (%)</t>
+          <t>105-2-115-FarPoints Improvement (%)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>105-2-115-TwoPoints Final Vs Mov (%)</t>
+          <t>105-2-115-FarPoints Final Vs Mov (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>105-2-115-TwoPoints Av. movement</t>
+          <t>105-2-115-FarPoints Av. movement</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>105-2-115-TwoPoints Av. error</t>
+          <t>105-2-115-FarPoints Av. error</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>105-2-115-TwoPoints Av. upToScale error</t>
+          <t>105-2-115-FarPoints Av. upToScale error</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>105-2-115-TwoPoints RMSE</t>
+          <t>105-2-115-FarPoints RMSE</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>105-2-115-TwoPoints t C1C2 norm (mm)</t>
+          <t>105-2-115-FarPoints t C1C2 norm (mm)</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>105-2-115-TwoPoints parallax</t>
+          <t>105-2-115-FarPoints parallax</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>105-2-115-TwoPoints nMatches</t>
+          <t>105-2-115-FarPoints nMatches</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>105-2-115-TwoPoints nMPs</t>
+          <t>105-2-115-FarPoints nMPs</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>125-3-140-TwoPoints Improvement (%)</t>
+          <t>125-3-140-FarPoints Improvement (%)</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>125-3-140-TwoPoints Final Vs Mov (%)</t>
+          <t>125-3-140-FarPoints Final Vs Mov (%)</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>125-3-140-TwoPoints Av. movement</t>
+          <t>125-3-140-FarPoints Av. movement</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>125-3-140-TwoPoints Av. error</t>
+          <t>125-3-140-FarPoints Av. error</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>125-3-140-TwoPoints Av. upToScale error</t>
+          <t>125-3-140-FarPoints Av. upToScale error</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>125-3-140-TwoPoints RMSE</t>
+          <t>125-3-140-FarPoints RMSE</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>125-3-140-TwoPoints t C1C2 norm (mm)</t>
+          <t>125-3-140-FarPoints t C1C2 norm (mm)</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>125-3-140-TwoPoints parallax</t>
+          <t>125-3-140-FarPoints parallax</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>125-3-140-TwoPoints nMatches</t>
+          <t>125-3-140-FarPoints nMatches</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>125-3-140-TwoPoints nMPs</t>
+          <t>125-3-140-FarPoints nMPs</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>140-3-150-TwoPoints Improvement (%)</t>
+          <t>140-3-150-FarPoints Improvement (%)</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>140-3-150-TwoPoints Final Vs Mov (%)</t>
+          <t>140-3-150-FarPoints Final Vs Mov (%)</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>140-3-150-TwoPoints Av. movement</t>
+          <t>140-3-150-FarPoints Av. movement</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>140-3-150-TwoPoints Av. error</t>
+          <t>140-3-150-FarPoints Av. error</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>140-3-150-TwoPoints Av. upToScale error</t>
+          <t>140-3-150-FarPoints Av. upToScale error</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>140-3-150-TwoPoints RMSE</t>
+          <t>140-3-150-FarPoints RMSE</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>140-3-150-TwoPoints t C1C2 norm (mm)</t>
+          <t>140-3-150-FarPoints t C1C2 norm (mm)</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>140-3-150-TwoPoints parallax</t>
+          <t>140-3-150-FarPoints parallax</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>140-3-150-TwoPoints nMatches</t>
+          <t>140-3-150-FarPoints nMatches</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>140-3-150-TwoPoints nMPs</t>
+          <t>140-3-150-FarPoints nMPs</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>150-2-160-TwoPoints Improvement (%)</t>
+          <t>150-2-160-FarPoints Improvement (%)</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>150-2-160-TwoPoints Final Vs Mov (%)</t>
+          <t>150-2-160-FarPoints Final Vs Mov (%)</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>150-2-160-TwoPoints Av. movement</t>
+          <t>150-2-160-FarPoints Av. movement</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>150-2-160-TwoPoints Av. error</t>
+          <t>150-2-160-FarPoints Av. error</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>150-2-160-TwoPoints Av. upToScale error</t>
+          <t>150-2-160-FarPoints Av. upToScale error</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>150-2-160-TwoPoints RMSE</t>
+          <t>150-2-160-FarPoints RMSE</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>150-2-160-TwoPoints t C1C2 norm (mm)</t>
+          <t>150-2-160-FarPoints t C1C2 norm (mm)</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>150-2-160-TwoPoints parallax</t>
+          <t>150-2-160-FarPoints parallax</t>
         </is>
       </c>
       <c r="AO1" s="1" t="inlineStr">
         <is>
-          <t>150-2-160-TwoPoints nMatches</t>
+          <t>150-2-160-FarPoints nMatches</t>
         </is>
       </c>
       <c r="AP1" s="1" t="inlineStr">
         <is>
-          <t>150-2-160-TwoPoints nMPs</t>
+          <t>150-2-160-FarPoints nMPs</t>
         </is>
       </c>
     </row>
@@ -657,22 +657,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-3.73</v>
+        <v>-3.47</v>
       </c>
       <c r="D2" t="n">
-        <v>14226.82</v>
+        <v>14047.27</v>
       </c>
       <c r="E2" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="F2" t="n">
-        <v>199.74</v>
+        <v>197.39</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="H2" t="n">
-        <v>200.67</v>
+        <v>198.36</v>
       </c>
       <c r="I2" t="n">
         <v>1.77</v>
@@ -681,28 +681,28 @@
         <v>0.2</v>
       </c>
       <c r="K2" t="n">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="L2" t="n">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="M2" t="n">
-        <v>80.54000000000001</v>
+        <v>79.09</v>
       </c>
       <c r="N2" t="n">
-        <v>467.48</v>
+        <v>507.27</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="P2" t="n">
-        <v>4.42</v>
+        <v>4.79</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.03</v>
+        <v>3.76</v>
       </c>
       <c r="R2" t="n">
-        <v>4.44</v>
+        <v>6.35</v>
       </c>
       <c r="S2" t="n">
         <v>2.5</v>
@@ -711,28 +711,28 @@
         <v>2.15</v>
       </c>
       <c r="U2" t="n">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="V2" t="n">
         <v>292</v>
       </c>
       <c r="W2" t="n">
-        <v>2.91</v>
+        <v>2.85</v>
       </c>
       <c r="X2" t="n">
-        <v>1569.42</v>
+        <v>1570.3</v>
       </c>
       <c r="Y2" t="n">
         <v>0.89</v>
       </c>
       <c r="Z2" t="n">
-        <v>13.89</v>
+        <v>13.9</v>
       </c>
       <c r="AA2" t="n">
         <v>12.22</v>
       </c>
       <c r="AB2" t="n">
-        <v>18.93</v>
+        <v>18.94</v>
       </c>
       <c r="AC2" t="n">
         <v>2.5</v>
@@ -747,22 +747,22 @@
         <v>476</v>
       </c>
       <c r="AG2" t="n">
-        <v>92.61</v>
+        <v>92.83</v>
       </c>
       <c r="AH2" t="n">
-        <v>46.71</v>
+        <v>45.53</v>
       </c>
       <c r="AI2" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.88</v>
+        <v>0.84</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="AL2" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AM2" t="n">
         <v>5.3</v>
@@ -771,10 +771,10 @@
         <v>2.09</v>
       </c>
       <c r="AO2" t="n">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="AP2" t="n">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3">
@@ -789,22 +789,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>82.91</v>
+        <v>34.64</v>
       </c>
       <c r="D3" t="n">
-        <v>449.67</v>
+        <v>1721.01</v>
       </c>
       <c r="E3" t="n">
         <v>1.69</v>
       </c>
       <c r="F3" t="n">
-        <v>7.58</v>
+        <v>29.02</v>
       </c>
       <c r="G3" t="n">
-        <v>6.58</v>
+        <v>6.65</v>
       </c>
       <c r="H3" t="n">
-        <v>11.47</v>
+        <v>31.52</v>
       </c>
       <c r="I3" t="n">
         <v>1.77</v>
@@ -813,28 +813,28 @@
         <v>1.81</v>
       </c>
       <c r="K3" t="n">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="L3" t="n">
-        <v>1190</v>
+        <v>1186</v>
       </c>
       <c r="M3" t="n">
-        <v>33.84</v>
+        <v>64.11</v>
       </c>
       <c r="N3" t="n">
-        <v>1369.07</v>
+        <v>740.63</v>
       </c>
       <c r="O3" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="P3" t="n">
-        <v>22.06</v>
+        <v>11.88</v>
       </c>
       <c r="Q3" t="n">
-        <v>20.02</v>
+        <v>3.16</v>
       </c>
       <c r="R3" t="n">
-        <v>26.12</v>
+        <v>13.19</v>
       </c>
       <c r="S3" t="n">
         <v>2.5</v>
@@ -843,28 +843,28 @@
         <v>2.55</v>
       </c>
       <c r="U3" t="n">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="V3" t="n">
-        <v>672</v>
+        <v>664</v>
       </c>
       <c r="W3" t="n">
-        <v>40.17</v>
+        <v>32.7</v>
       </c>
       <c r="X3" t="n">
-        <v>962.29</v>
+        <v>1083.06</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="Z3" t="n">
-        <v>11.55</v>
+        <v>13.08</v>
       </c>
       <c r="AA3" t="n">
-        <v>5.97</v>
+        <v>8.44</v>
       </c>
       <c r="AB3" t="n">
-        <v>14.64</v>
+        <v>16.07</v>
       </c>
       <c r="AC3" t="n">
         <v>2.5</v>
@@ -873,40 +873,40 @@
         <v>2.88</v>
       </c>
       <c r="AE3" t="n">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AF3" t="n">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.47</v>
+        <v>1.03</v>
       </c>
       <c r="AH3" t="n">
-        <v>675.96</v>
+        <v>689.14</v>
       </c>
       <c r="AI3" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="AJ3" t="n">
-        <v>8.869999999999999</v>
+        <v>8.970000000000001</v>
       </c>
       <c r="AK3" t="n">
-        <v>9.93</v>
+        <v>10.17</v>
       </c>
       <c r="AL3" t="n">
-        <v>11.72</v>
+        <v>11.9</v>
       </c>
       <c r="AM3" t="n">
         <v>1.77</v>
       </c>
       <c r="AN3" t="n">
-        <v>2.27</v>
+        <v>2.26</v>
       </c>
       <c r="AO3" t="n">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="AP3" t="n">
-        <v>836</v>
+        <v>828</v>
       </c>
     </row>
     <row r="4">
@@ -921,28 +921,28 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>30.28</v>
+        <v>32.43</v>
       </c>
       <c r="D4" t="n">
-        <v>468.5</v>
+        <v>456.19</v>
       </c>
       <c r="E4" t="n">
         <v>4.38</v>
       </c>
       <c r="F4" t="n">
-        <v>20.52</v>
+        <v>19.97</v>
       </c>
       <c r="G4" t="n">
-        <v>9.81</v>
+        <v>12.7</v>
       </c>
       <c r="H4" t="n">
-        <v>25.72</v>
+        <v>25.06</v>
       </c>
       <c r="I4" t="n">
         <v>3.97</v>
       </c>
       <c r="J4" t="n">
-        <v>4.15</v>
+        <v>4.12</v>
       </c>
       <c r="K4" t="n">
         <v>432</v>
@@ -951,28 +951,28 @@
         <v>862</v>
       </c>
       <c r="M4" t="n">
-        <v>66.93000000000001</v>
+        <v>60.86</v>
       </c>
       <c r="N4" t="n">
-        <v>585.48</v>
+        <v>695.48</v>
       </c>
       <c r="O4" t="n">
         <v>1.98</v>
       </c>
       <c r="P4" t="n">
-        <v>11.62</v>
+        <v>13.76</v>
       </c>
       <c r="Q4" t="n">
-        <v>7.92</v>
+        <v>10.25</v>
       </c>
       <c r="R4" t="n">
-        <v>14.67</v>
+        <v>16.94</v>
       </c>
       <c r="S4" t="n">
         <v>2.5</v>
       </c>
       <c r="T4" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="U4" t="n">
         <v>380</v>
@@ -981,22 +981,22 @@
         <v>698</v>
       </c>
       <c r="W4" t="n">
-        <v>0.17</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="X4" t="n">
-        <v>1567.07</v>
+        <v>1413.95</v>
       </c>
       <c r="Y4" t="n">
         <v>1.12</v>
       </c>
       <c r="Z4" t="n">
-        <v>17.61</v>
+        <v>15.83</v>
       </c>
       <c r="AA4" t="n">
-        <v>15.05</v>
+        <v>3.23</v>
       </c>
       <c r="AB4" t="n">
-        <v>23.78</v>
+        <v>17.8</v>
       </c>
       <c r="AC4" t="n">
         <v>2.5</v>
@@ -1005,28 +1005,28 @@
         <v>2.53</v>
       </c>
       <c r="AE4" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AF4" t="n">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="AG4" t="n">
-        <v>17.53</v>
+        <v>53.89</v>
       </c>
       <c r="AH4" t="n">
-        <v>728.05</v>
+        <v>414</v>
       </c>
       <c r="AI4" t="n">
         <v>1.6</v>
       </c>
       <c r="AJ4" t="n">
-        <v>11.67</v>
+        <v>6.63</v>
       </c>
       <c r="AK4" t="n">
-        <v>11.75</v>
+        <v>5.93</v>
       </c>
       <c r="AL4" t="n">
-        <v>16.61</v>
+        <v>9.56</v>
       </c>
       <c r="AM4" t="n">
         <v>1.77</v>
@@ -1035,10 +1035,10 @@
         <v>2.59</v>
       </c>
       <c r="AO4" t="n">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="AP4" t="n">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="5">
@@ -1053,22 +1053,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>38.2</v>
+        <v>70.97</v>
       </c>
       <c r="D5" t="n">
-        <v>790.21</v>
+        <v>371.46</v>
       </c>
       <c r="E5" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="F5" t="n">
-        <v>14.31</v>
+        <v>6.74</v>
       </c>
       <c r="G5" t="n">
-        <v>2.68</v>
+        <v>5.87</v>
       </c>
       <c r="H5" t="n">
-        <v>15.92</v>
+        <v>10.29</v>
       </c>
       <c r="I5" t="n">
         <v>1.77</v>
@@ -1077,28 +1077,28 @@
         <v>1.97</v>
       </c>
       <c r="K5" t="n">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="L5" t="n">
-        <v>1174</v>
+        <v>1168</v>
       </c>
       <c r="M5" t="n">
-        <v>42.81</v>
+        <v>45.1</v>
       </c>
       <c r="N5" t="n">
-        <v>835.17</v>
+        <v>805.05</v>
       </c>
       <c r="O5" t="n">
         <v>2.08</v>
       </c>
       <c r="P5" t="n">
-        <v>17.35</v>
+        <v>16.74</v>
       </c>
       <c r="Q5" t="n">
-        <v>12.42</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="R5" t="n">
-        <v>22.02</v>
+        <v>20.99</v>
       </c>
       <c r="S5" t="n">
         <v>2.5</v>
@@ -1107,28 +1107,28 @@
         <v>2.95</v>
       </c>
       <c r="U5" t="n">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="V5" t="n">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="W5" t="n">
-        <v>36.82</v>
+        <v>41.63</v>
       </c>
       <c r="X5" t="n">
-        <v>1148.8</v>
+        <v>1063.36</v>
       </c>
       <c r="Y5" t="n">
         <v>1.43</v>
       </c>
       <c r="Z5" t="n">
-        <v>16.39</v>
+        <v>15.16</v>
       </c>
       <c r="AA5" t="n">
-        <v>10.88</v>
+        <v>2.84</v>
       </c>
       <c r="AB5" t="n">
-        <v>20.06</v>
+        <v>16.71</v>
       </c>
       <c r="AC5" t="n">
         <v>2.5</v>
@@ -1143,28 +1143,28 @@
         <v>662</v>
       </c>
       <c r="AG5" t="n">
-        <v>23.75</v>
+        <v>14.26</v>
       </c>
       <c r="AH5" t="n">
-        <v>681.67</v>
+        <v>770.9400000000001</v>
       </c>
       <c r="AI5" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="AJ5" t="n">
-        <v>13.52</v>
+        <v>15.17</v>
       </c>
       <c r="AK5" t="n">
-        <v>15.93</v>
+        <v>20.36</v>
       </c>
       <c r="AL5" t="n">
-        <v>15.78</v>
+        <v>17.17</v>
       </c>
       <c r="AM5" t="n">
         <v>1.77</v>
       </c>
       <c r="AN5" t="n">
-        <v>3.07</v>
+        <v>3.08</v>
       </c>
       <c r="AO5" t="n">
         <v>397</v>
@@ -1185,22 +1185,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>38.02</v>
+        <v>25.72</v>
       </c>
       <c r="D6" t="n">
-        <v>600.71</v>
+        <v>713.28</v>
       </c>
       <c r="E6" t="n">
         <v>1.94</v>
       </c>
       <c r="F6" t="n">
-        <v>11.65</v>
+        <v>13.85</v>
       </c>
       <c r="G6" t="n">
-        <v>5.91</v>
+        <v>9.15</v>
       </c>
       <c r="H6" t="n">
-        <v>14.23</v>
+        <v>17.29</v>
       </c>
       <c r="I6" t="n">
         <v>1.77</v>
@@ -1209,28 +1209,28 @@
         <v>2.11</v>
       </c>
       <c r="K6" t="n">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="L6" t="n">
-        <v>1214</v>
+        <v>1210</v>
       </c>
       <c r="M6" t="n">
-        <v>53.81</v>
+        <v>7.4</v>
       </c>
       <c r="N6" t="n">
-        <v>719.35</v>
+        <v>1418.62</v>
       </c>
       <c r="O6" t="n">
         <v>2.29</v>
       </c>
       <c r="P6" t="n">
-        <v>16.49</v>
+        <v>32.46</v>
       </c>
       <c r="Q6" t="n">
-        <v>11.2</v>
+        <v>27.81</v>
       </c>
       <c r="R6" t="n">
-        <v>20.51</v>
+        <v>43.86</v>
       </c>
       <c r="S6" t="n">
         <v>2.5</v>
@@ -1239,28 +1239,28 @@
         <v>2.79</v>
       </c>
       <c r="U6" t="n">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="V6" t="n">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="W6" t="n">
-        <v>1.64</v>
+        <v>1.18</v>
       </c>
       <c r="X6" t="n">
-        <v>1386.54</v>
+        <v>1391.51</v>
       </c>
       <c r="Y6" t="n">
         <v>1.1</v>
       </c>
       <c r="Z6" t="n">
-        <v>15.32</v>
+        <v>15.36</v>
       </c>
       <c r="AA6" t="n">
-        <v>5.83</v>
+        <v>11.19</v>
       </c>
       <c r="AB6" t="n">
-        <v>18.71</v>
+        <v>22.22</v>
       </c>
       <c r="AC6" t="n">
         <v>2.5</v>
@@ -1269,28 +1269,28 @@
         <v>2.85</v>
       </c>
       <c r="AE6" t="n">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AF6" t="n">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.48</v>
+        <v>26.45</v>
       </c>
       <c r="AH6" t="n">
-        <v>891.52</v>
+        <v>661.87</v>
       </c>
       <c r="AI6" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="AJ6" t="n">
-        <v>17.62</v>
+        <v>13.07</v>
       </c>
       <c r="AK6" t="n">
-        <v>13.36</v>
+        <v>7.38</v>
       </c>
       <c r="AL6" t="n">
-        <v>23.08</v>
+        <v>15.34</v>
       </c>
       <c r="AM6" t="n">
         <v>1.77</v>
@@ -1299,10 +1299,10 @@
         <v>2.72</v>
       </c>
       <c r="AO6" t="n">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="AP6" t="n">
-        <v>628</v>
+        <v>632</v>
       </c>
     </row>
     <row r="7">
@@ -1317,22 +1317,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>62.2</v>
+        <v>57.23</v>
       </c>
       <c r="D7" t="n">
-        <v>435.5</v>
+        <v>491.25</v>
       </c>
       <c r="E7" t="n">
         <v>2.08</v>
       </c>
       <c r="F7" t="n">
-        <v>9.07</v>
+        <v>10.23</v>
       </c>
       <c r="G7" t="n">
-        <v>9.890000000000001</v>
+        <v>20.99</v>
       </c>
       <c r="H7" t="n">
-        <v>11.98</v>
+        <v>13.32</v>
       </c>
       <c r="I7" t="n">
         <v>1.77</v>
@@ -1341,58 +1341,58 @@
         <v>2.73</v>
       </c>
       <c r="K7" t="n">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="L7" t="n">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="M7" t="n">
-        <v>42.63</v>
+        <v>40.68</v>
       </c>
       <c r="N7" t="n">
-        <v>681</v>
+        <v>704.27</v>
       </c>
       <c r="O7" t="n">
-        <v>2.37</v>
+        <v>2.36</v>
       </c>
       <c r="P7" t="n">
-        <v>16.14</v>
+        <v>16.65</v>
       </c>
       <c r="Q7" t="n">
-        <v>10.44</v>
+        <v>3.15</v>
       </c>
       <c r="R7" t="n">
-        <v>20.76</v>
+        <v>17.81</v>
       </c>
       <c r="S7" t="n">
         <v>2.5</v>
       </c>
       <c r="T7" t="n">
-        <v>3.5</v>
+        <v>3.51</v>
       </c>
       <c r="U7" t="n">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="V7" t="n">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="W7" t="n">
-        <v>13.04</v>
+        <v>35.75</v>
       </c>
       <c r="X7" t="n">
-        <v>1515.9</v>
+        <v>1121.56</v>
       </c>
       <c r="Y7" t="n">
         <v>1.63</v>
       </c>
       <c r="Z7" t="n">
-        <v>24.74</v>
+        <v>18.28</v>
       </c>
       <c r="AA7" t="n">
-        <v>17.76</v>
+        <v>10.39</v>
       </c>
       <c r="AB7" t="n">
-        <v>29.07</v>
+        <v>22.04</v>
       </c>
       <c r="AC7" t="n">
         <v>2.5</v>
@@ -1401,28 +1401,28 @@
         <v>3.08</v>
       </c>
       <c r="AE7" t="n">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AF7" t="n">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.18</v>
+        <v>0.87</v>
       </c>
       <c r="AH7" t="n">
-        <v>892.08</v>
+        <v>885.48</v>
       </c>
       <c r="AI7" t="n">
         <v>2.52</v>
       </c>
       <c r="AJ7" t="n">
-        <v>22.47</v>
+        <v>22.3</v>
       </c>
       <c r="AK7" t="n">
-        <v>12.14</v>
+        <v>11.87</v>
       </c>
       <c r="AL7" t="n">
-        <v>25.47</v>
+        <v>25.31</v>
       </c>
       <c r="AM7" t="n">
         <v>1.77</v>
@@ -1449,22 +1449,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>65.89</v>
+        <v>62.08</v>
       </c>
       <c r="D8" t="n">
-        <v>455.19</v>
+        <v>504.34</v>
       </c>
       <c r="E8" t="n">
         <v>2.16</v>
       </c>
       <c r="F8" t="n">
-        <v>9.82</v>
+        <v>10.88</v>
       </c>
       <c r="G8" t="n">
-        <v>7.26</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="H8" t="n">
-        <v>11.9</v>
+        <v>13.75</v>
       </c>
       <c r="I8" t="n">
         <v>1.77</v>
@@ -1473,88 +1473,88 @@
         <v>2.27</v>
       </c>
       <c r="K8" t="n">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="L8" t="n">
-        <v>530</v>
+        <v>508</v>
       </c>
       <c r="M8" t="n">
-        <v>50.42</v>
+        <v>29.74</v>
       </c>
       <c r="N8" t="n">
-        <v>522.95</v>
+        <v>743.3099999999999</v>
       </c>
       <c r="O8" t="n">
-        <v>2.39</v>
+        <v>2.42</v>
       </c>
       <c r="P8" t="n">
-        <v>12.51</v>
+        <v>17.96</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.17</v>
+        <v>18.07</v>
       </c>
       <c r="R8" t="n">
-        <v>17.32</v>
+        <v>24.31</v>
       </c>
       <c r="S8" t="n">
         <v>2.5</v>
       </c>
       <c r="T8" t="n">
-        <v>2.7</v>
+        <v>2.67</v>
       </c>
       <c r="U8" t="n">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="V8" t="n">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="W8" t="n">
-        <v>37.27</v>
+        <v>35.07</v>
       </c>
       <c r="X8" t="n">
-        <v>971.35</v>
+        <v>980.3099999999999</v>
       </c>
       <c r="Y8" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="Z8" t="n">
-        <v>19.61</v>
+        <v>20.19</v>
       </c>
       <c r="AA8" t="n">
-        <v>8.08</v>
+        <v>3.25</v>
       </c>
       <c r="AB8" t="n">
-        <v>24.54</v>
+        <v>22.32</v>
       </c>
       <c r="AC8" t="n">
         <v>2.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>2.8</v>
+        <v>2.81</v>
       </c>
       <c r="AE8" t="n">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="AF8" t="n">
-        <v>306</v>
+        <v>322</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.09</v>
+        <v>-1.22</v>
       </c>
       <c r="AH8" t="n">
-        <v>870.37</v>
+        <v>879.92</v>
       </c>
       <c r="AI8" t="n">
         <v>3.93</v>
       </c>
       <c r="AJ8" t="n">
-        <v>34.23</v>
+        <v>34.61</v>
       </c>
       <c r="AK8" t="n">
-        <v>4.91</v>
+        <v>0.03</v>
       </c>
       <c r="AL8" t="n">
-        <v>35.39</v>
+        <v>35.11</v>
       </c>
       <c r="AM8" t="n">
         <v>1.77</v>
